--- a/Examples/Example-PSWinDocumentation.AD.01/Run-Demo02.xlsx
+++ b/Examples/Example-PSWinDocumentation.AD.01/Run-Demo02.xlsx
@@ -11,15 +11,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Forest Information'!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Forest Sites'!$A$1:$Z$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Forest Optional Features'!$A$1:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Forest Sites'!$A$1:$Z$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Forest Optional Features'!$A$1:$B$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Sites</t>
   </si>
   <si>
-    <t>KATOWICE-1, GLIWICE, KATOWICE-2, MIKOLOW</t>
+    <t>KATOWICE-1, GLIWICE, KATOWICE-2</t>
   </si>
   <si>
     <t>DisplayName</t>
@@ -141,6 +141,9 @@
     <t>KATOWICE-1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Main location</t>
   </si>
   <si>
@@ -153,7 +156,7 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>CN=192.168.239.0/24,CN=Subnets,CN=Sites,CN=Configuration,DC=ad,DC=evotec,DC=xyz</t>
+    <t>CN=192.168.239.0/24,CN=Subnets,CN=Sites,CN=Configuration,DC=ad,DC=evotec,DC=xyz;CN=192.168.240.0/24,CN=Subnets,CN=Sites,CN=Configuration,DC=ad,DC=evotec,DC=xyz</t>
   </si>
   <si>
     <t>GLIWICE</t>
@@ -177,22 +180,13 @@
     <t>CN=KATOWICE-2,CN=Sites,CN=Configuration,DC=ad,DC=evotec,DC=xyz</t>
   </si>
   <si>
-    <t>MIKOLOW</t>
-  </si>
-  <si>
-    <t>ad.evotec.xyz/Configuration/Sites/MIKOLOW</t>
-  </si>
-  <si>
-    <t>CN=MIKOLOW,CN=Sites,CN=Configuration,DC=ad,DC=evotec,DC=xyz</t>
-  </si>
-  <si>
-    <t>CN=192.168.241.0/24,CN=Subnets,CN=Sites,CN=Configuration,DC=ad,DC=evotec,DC=xyz</t>
-  </si>
-  <si>
     <t>Recycle Bin Enabled</t>
   </si>
   <si>
     <t>Privileged Access Management Feature Enabled</t>
+  </si>
+  <si>
+    <t>Laps Enabled</t>
   </si>
 </sst>
 </file>
@@ -249,7 +243,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.4899806976318" customWidth="1"/>
-    <col min="2" max="2" width="43.7164421081543" customWidth="1"/>
+    <col min="2" max="2" width="33.4939804077148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -305,7 +299,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -335,7 +329,7 @@
   <sheetPr>
     <tabColor rgb="FF4169E1"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -355,7 +349,7 @@
     <col min="12" max="12" width="31.844799041748" customWidth="1"/>
     <col min="13" max="13" width="43.1169242858887" customWidth="1"/>
     <col min="14" max="14" width="35.6066093444824" customWidth="1"/>
-    <col min="15" max="15" width="60.8855285644531" customWidth="1"/>
+    <col min="15" max="15" width="157.896636962891" customWidth="1"/>
     <col min="16" max="16" width="16.5939655303955" customWidth="1"/>
     <col min="17" max="17" width="23.7104053497314" customWidth="1"/>
     <col min="18" max="18" width="26.7090110778809" customWidth="1"/>
@@ -453,17 +447,23 @@
       <c r="A2" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="H2" s="1">
         <v>43240.4134606481</v>
@@ -471,31 +471,79 @@
       <c r="I2" s="1">
         <v>43311.6563194444</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="K2" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="L2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="b">
+        <v>1</v>
+      </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0">
         <v>15</v>
       </c>
+      <c r="Q2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="H3" s="1">
         <v>43302.820150463</v>
@@ -503,22 +551,79 @@
       <c r="I3" s="1">
         <v>43311.6559490741</v>
       </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="K3" s="0" t="b">
         <v>0</v>
+      </c>
+      <c r="L3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="P3" s="0">
         <v>15</v>
       </c>
+      <c r="Q3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="H4" s="1">
         <v>43302.8203009259</v>
@@ -526,41 +631,60 @@
       <c r="I4" s="1">
         <v>43302.8207523148</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="K4" s="0" t="b">
         <v>0</v>
+      </c>
+      <c r="L4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="P4" s="0">
         <v>15</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="1">
-        <v>43302.8203819444</v>
-      </c>
-      <c r="I5" s="1">
-        <v>43302.8205555556</v>
-      </c>
-      <c r="K5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="0">
-        <v>15</v>
+      <c r="Q4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z5"/>
+  <autoFilter ref="A1:Z4"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -570,7 +694,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,7 +714,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="b">
         <v>0</v>
@@ -598,14 +722,22 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="0" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B3"/>
+  <autoFilter ref="A1:B4"/>
   <headerFooter/>
 </worksheet>
 </file>